--- a/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
+++ b/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocLinh\Desktop\PTTKTT\Thiet-Ke-Thuat-Toan\HomeworkHackerrank\code tung nhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocLinh\Desktop\PTTKTT\Thiet-Ke-Thuat-Toan\HomeworkHackerrank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDEE7C9-04E8-4FEB-89EA-F6289BBD455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66418432-E782-4C45-AF74-03BC9EA998EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Nhóm</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>300/400</t>
-  </si>
-  <si>
-    <t>88.89/400</t>
   </si>
   <si>
     <t>360.32/400</t>
@@ -454,7 +451,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -693,13 +690,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
+++ b/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocLinh\Desktop\PTTKTT\Thiet-Ke-Thuat-Toan\HomeworkHackerrank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66418432-E782-4C45-AF74-03BC9EA998EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7AA805-1CBE-470A-9554-0B8BDA2825B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Nhóm</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>206/400</t>
-  </si>
-  <si>
-    <t>188.89/400</t>
   </si>
   <si>
     <t>155.56/400</t>
@@ -451,7 +448,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -536,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -620,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -690,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
+++ b/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocLinh\Desktop\PTTKTT\Thiet-Ke-Thuat-Toan\HomeworkHackerrank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7AA805-1CBE-470A-9554-0B8BDA2825B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C0C621-870A-4F54-919A-A859370A42B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Nhóm</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>400/400</t>
-  </si>
-  <si>
-    <t>206/400</t>
   </si>
   <si>
     <t>155.56/400</t>
@@ -448,7 +445,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -533,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -560,14 +557,14 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -687,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
+++ b/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocLinh\Desktop\PTTKTT\Thiet-Ke-Thuat-Toan\HomeworkHackerrank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C0C621-870A-4F54-919A-A859370A42B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB957E-AF89-455F-B3AE-12F21954D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Nhóm</t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t>400/400</t>
-  </si>
-  <si>
-    <t>155.56/400</t>
-  </si>
-  <si>
-    <t>300/400</t>
   </si>
   <si>
     <t>360.32/400</t>
@@ -444,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,27 +482,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,13 +524,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -684,13 +678,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
+++ b/HomeworkHackerrank/ThongKeDiemCacNhom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocLinh\Desktop\PTTKTT\Thiet-Ke-Thuat-Toan\HomeworkHackerrank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB957E-AF89-455F-B3AE-12F21954D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C817DADB-6D9B-44AE-BC90-F9ECEB109CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Nhóm</t>
   </si>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,14 +621,14 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,14 +705,14 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>22</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
